--- a/工控机.xlsx
+++ b/工控机.xlsx
@@ -1723,57 +1723,57 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J16" sqref="J16"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="53.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9" style="9"/>
-    <col min="4" max="4" width="24" style="13" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="9" customWidth="1"/>
-    <col min="6" max="6" width="44" style="6" customWidth="1"/>
-    <col min="7" max="7" width="21.625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11" style="6" customWidth="1"/>
-    <col min="9" max="9" width="16" style="6" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="47.875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9" style="9"/>
+    <col min="5" max="5" width="24" style="13" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="9" customWidth="1"/>
+    <col min="7" max="7" width="44" style="6" customWidth="1"/>
+    <col min="8" max="8" width="21.625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11" style="6" customWidth="1"/>
+    <col min="10" max="10" width="16" style="6" customWidth="1"/>
+    <col min="11" max="11" width="17.875" style="6" customWidth="1"/>
     <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="17" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>16</v>
       </c>
       <c r="L1" s="14"/>
     </row>
@@ -1782,34 +1782,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="5">
+      <c r="D2" s="5">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>77</v>
@@ -1819,35 +1819,35 @@
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D3" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>76</v>
@@ -1857,35 +1857,35 @@
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="5">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>6</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>75</v>
@@ -1895,35 +1895,35 @@
       <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="5">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>78</v>
@@ -1933,35 +1933,35 @@
       <c r="A6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="5">
         <v>2</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>4</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>79</v>
@@ -1972,31 +1972,31 @@
         <v>49</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>4</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="K7" s="4"/>
       <c r="L7" s="8" t="s">
         <v>51</v>
       </c>
@@ -2005,29 +2005,29 @@
       <c r="A8" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="9">
+      <c r="D8" s="9">
         <v>2</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="9">
+      <c r="F8" s="9">
         <v>6</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>87</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>85</v>
@@ -2037,29 +2037,29 @@
       <c r="A9" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="9">
+      <c r="D9" s="9">
         <v>2</v>
       </c>
-      <c r="D9" s="13">
+      <c r="E9" s="13">
         <v>6</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>93</v>
@@ -2069,29 +2069,29 @@
       <c r="A10" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="9">
+      <c r="D10" s="9">
         <v>2</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="9">
+      <c r="F10" s="9">
         <v>10</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>99</v>
